--- a/src/test/resources/etalon/combinesheets/CS_030_emptyRowHeadersFormattingBlankRow.xlsx
+++ b/src/test/resources/etalon/combinesheets/CS_030_emptyRowHeadersFormattingBlankRow.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="555" windowWidth="27495" windowHeight="13485"/>
+    <workbookView xWindow="634" yWindow="557" windowWidth="27497" windowHeight="13483"/>
   </bookViews>
   <sheets>
     <sheet name="Combined data" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Column1</t>
   </si>
@@ -53,6 +53,36 @@
   </si>
   <si>
     <t>Row5</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>421</t>
+  </si>
+  <si>
+    <t>565</t>
+  </si>
+  <si>
+    <t>709</t>
+  </si>
+  <si>
+    <t>960.5</t>
+  </si>
+  <si>
+    <t>1464.5</t>
+  </si>
+  <si>
+    <t>1968.5</t>
+  </si>
+  <si>
+    <t>2472.5</t>
+  </si>
+  <si>
+    <t>11976.5</t>
   </si>
 </sst>
 </file>
@@ -356,11 +386,13 @@
   </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -382,7 +414,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -401,12 +433,12 @@
       <c r="F2" s="5">
         <v>100</v>
       </c>
-      <c r="G2" s="6">
-        <v>133</v>
+      <c r="G2" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -425,12 +457,12 @@
       <c r="F3" s="5">
         <v>200</v>
       </c>
-      <c r="G3" s="6">
-        <v>277</v>
+      <c r="G3" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -449,12 +481,12 @@
       <c r="F4" s="5">
         <v>300</v>
       </c>
-      <c r="G4" s="6">
-        <v>421</v>
+      <c r="G4" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -473,12 +505,12 @@
       <c r="F5" s="5">
         <v>400</v>
       </c>
-      <c r="G5" s="6">
-        <v>565</v>
+      <c r="G5" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -497,12 +529,12 @@
       <c r="F6" s="5">
         <v>500</v>
       </c>
-      <c r="G6" s="6">
-        <v>709</v>
+      <c r="G6" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -512,7 +544,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="8"/>
       <c r="B8" s="5">
         <v>51</v>
@@ -529,14 +561,14 @@
       <c r="F8" s="5">
         <v>600</v>
       </c>
-      <c r="G8" s="9">
-        <v>960.5</v>
+      <c r="G8" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8"/>
       <c r="B9" s="5">
         <v>53</v>
@@ -553,14 +585,14 @@
       <c r="F9" s="5">
         <v>700</v>
       </c>
-      <c r="G9" s="9">
-        <v>1464.5</v>
+      <c r="G9" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8"/>
       <c r="B10" s="5">
         <v>55</v>
@@ -577,14 +609,14 @@
       <c r="F10" s="5">
         <v>800</v>
       </c>
-      <c r="G10" s="9">
-        <v>1968.5</v>
+      <c r="G10" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="B11" s="5">
         <v>57</v>
@@ -601,14 +633,14 @@
       <c r="F11" s="5">
         <v>900</v>
       </c>
-      <c r="G11" s="9">
-        <v>2472.5</v>
+      <c r="G11" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="B12" s="5">
         <v>59</v>
@@ -625,8 +657,8 @@
       <c r="F12" s="5">
         <v>10000</v>
       </c>
-      <c r="G12" s="9">
-        <v>11976.5</v>
+      <c r="G12" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>10</v>
